--- a/biology/Microbiologie/Culture_microbienne/Culture_microbienne.xlsx
+++ b/biology/Microbiologie/Culture_microbienne/Culture_microbienne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La culture microbienne ou culture microbiologique est une technique de laboratoire de développement contrôlé de micro-organismes, croissance in vitro, en principe d'une seule souche bactérienne. Ces cultures facilitent donc l'étude des souches bactériennes.
 </t>
@@ -511,7 +523,9 @@
           <t>Techniques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les techniques de culture sont nombreuses ; elles varient en fonction :
 de la nature du prélèvement: surfaces, pus, sécrétions, selles, organes, broyages …
@@ -550,7 +564,9 @@
           <t>Finalité</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Les bactéries ainsi obtenues serviront à une série de tests permettant de déterminer, selon le(s) but(s) de l'étude :
 le dénombrement des micro-organismes (dans le cas d'un contrôle sanitaire par exemple) ;
@@ -583,7 +599,9 @@
           <t>Risque biologique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Au laboratoire, le risque est omniprésent.
 L'hygiène et la stérilisation sont indispensables, afin d'éviter toute contamination du laborantin et/ou de son environnement.
